--- a/example/анализ данных.xlsx
+++ b/example/анализ данных.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8716930C-65FF-457C-A481-C3E3309869CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065B7E9-D18E-474A-AAEC-DD3D11ECC4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17028" yWindow="4368" windowWidth="15444" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
+    <workbookView xWindow="11400" yWindow="4536" windowWidth="16344" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">m!$A$1:$C$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p!$A$1:$L$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p!$A$1:$N$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>m_id</t>
   </si>
@@ -123,6 +124,18 @@
   </si>
   <si>
     <t>QM_B</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -139,12 +152,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +192,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -923,10 +951,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +964,7 @@
     <col min="11" max="11" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -973,8 +1001,17 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1036,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1067,7 +1104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1097,8 +1134,14 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1131,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1162,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1193,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1226,7 +1269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1259,7 +1302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1288,11 +1331,21 @@
       <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11">
+        <f>16*3</f>
+        <v>48</v>
+      </c>
+      <c r="O11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1321,11 +1374,21 @@
       <c r="K12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <f>21*3</f>
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1354,11 +1417,21 @@
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <f>25*3</f>
+        <v>75</v>
+      </c>
+      <c r="O13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1390,8 +1463,18 @@
       <c r="L14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <f>16*3</f>
+        <v>48</v>
+      </c>
+      <c r="O14" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1423,8 +1506,12 @@
       <c r="L15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="4"/>
+      <c r="O15" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1457,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1489,8 +1576,12 @@
       <c r="L17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="4"/>
+      <c r="O17" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1522,8 +1613,12 @@
       <c r="L18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="4"/>
+      <c r="O18" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1555,8 +1650,12 @@
       <c r="L19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="4"/>
+      <c r="O19" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1588,8 +1687,12 @@
       <c r="L20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="4"/>
+      <c r="O20" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1618,8 +1721,11 @@
       <c r="K21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1651,8 +1757,12 @@
       <c r="L22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="4"/>
+      <c r="O22" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1681,8 +1791,12 @@
       <c r="K23" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="4"/>
+      <c r="O23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1712,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1742,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1772,7 +1886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1801,8 +1915,16 @@
       <c r="K27" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27">
+        <v>90</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1826,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <f>INT(G28/3)+2</f>
+        <f t="shared" ref="H28:H33" si="1">INT(G28/3)+2</f>
         <v>12</v>
       </c>
       <c r="I28">
@@ -1838,8 +1960,11 @@
       <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1863,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H33" si="1">INT(G29/3)+2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I29">
@@ -1876,7 +2001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1913,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1950,7 +2075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1984,7 +2109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2021,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>SUBTOTAL(9,C2:C34)</f>
         <v>962</v>
@@ -2030,8 +2155,12 @@
         <f>SUBTOTAL(9,D2:D34)</f>
         <v>317</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <f>SUBTOTAL(9,O5:O34)</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D37">
         <f>13*27</f>
         <v>351</v>
@@ -2041,7 +2170,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D39">
         <f>D35-D37</f>
         <v>-34</v>
@@ -2052,7 +2181,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L33" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
+  <autoFilter ref="A1:N33" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
     <filterColumn colId="9">
       <filters>
         <filter val="0"/>

--- a/example/анализ данных.xlsx
+++ b/example/анализ данных.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0065B7E9-D18E-474A-AAEC-DD3D11ECC4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A1114-03FF-473D-8BE3-ED2E3D686B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="4536" windowWidth="16344" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
+    <workbookView xWindow="13584" yWindow="2616" windowWidth="18012" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">m!$A$1:$C$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p!$A$1:$N$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p!$A$1:$O$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>m_id</t>
   </si>
@@ -136,6 +135,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -152,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +203,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -951,1241 +963,1357 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>60406</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <f>INT(C2/3)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
+        <f>INT(D2/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>10427</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D33" si="0">INT(C3/3)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+        <f t="shared" ref="E3:E33" si="0">INT(D3/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" t="s">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>10428</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>18316</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>15406</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>29</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>78426</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>60405</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>43</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>10417</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>41</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f>16*3</f>
         <v>48</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="6">
         <v>57</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="6">
         <f>21*3</f>
         <v>63</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>18317</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>69</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f>25*3</f>
         <v>75</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>87315</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>44</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>27</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f>16*3</f>
         <v>48</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>18310</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>77</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="O15" s="5">
+      <c r="N15" s="4"/>
+      <c r="P15" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>78</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
         <v>87416</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>78</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="O17" s="5">
+      <c r="N17" s="4"/>
+      <c r="P17" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>87024</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>78</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="O18" s="5">
+      <c r="N18" s="4"/>
+      <c r="P18" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
         <v>15306</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>75</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="O19" s="5">
+      <c r="N19" s="4"/>
+      <c r="P19" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
         <v>81433</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>76</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="O20" s="5">
+      <c r="N20" s="4"/>
+      <c r="P20" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
         <v>60301</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O21">
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>78</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="O22" s="5">
+      <c r="N22" s="4"/>
+      <c r="P22" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
         <v>87027</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>67</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="O23" s="4">
+      <c r="N23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
         <v>10419</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>101</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
         <v>10005</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>137</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
         <v>87316</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>97</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
         <v>87021</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>82</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-      <c r="N27">
-        <v>90</v>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="O27">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
         <v>87026</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>124</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>30</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H33" si="1">INT(G28/3)+2</f>
+      <c r="I28">
+        <f t="shared" ref="I28:I33" si="1">INT(H28/3)+2</f>
         <v>12</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
         <v>3211</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>182</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>23</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
         <v>60411</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>214</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>73</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
       <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
         <v>11022</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>253</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>59</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
       <c r="J31">
         <v>2</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
         <v>18308</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>244</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33">
         <v>18422</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>285</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>49</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <f>SUBTOTAL(9,C2:C34)</f>
-        <v>962</v>
-      </c>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>SUBTOTAL(9,D2:D34)</f>
-        <v>317</v>
-      </c>
-      <c r="O35">
-        <f>SUBTOTAL(9,O5:O34)</f>
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D37">
+        <v>1826</v>
+      </c>
+      <c r="E35">
+        <f>SUBTOTAL(9,E2:E34)</f>
+        <v>602</v>
+      </c>
+      <c r="P35">
+        <f>SUBTOTAL(9,P5:P34)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E37">
         <f>13*27</f>
         <v>351</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f>24*27</f>
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D39">
-        <f>D35-D37</f>
-        <v>-34</v>
-      </c>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39">
-        <f>D35-E37</f>
-        <v>-331</v>
+        <f>E35-E37</f>
+        <v>251</v>
+      </c>
+      <c r="F39">
+        <f>E35-F37</f>
+        <v>-46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N33" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
-    <filterColumn colId="9">
+  <autoFilter ref="A1:O33" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
+    <filterColumn colId="10">
       <filters>
-        <filter val="0"/>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/example/анализ данных.xlsx
+++ b/example/анализ данных.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A1114-03FF-473D-8BE3-ED2E3D686B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF7300-F7DB-4B04-91E6-B1FA9E70955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13584" yWindow="2616" windowWidth="18012" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
+    <workbookView xWindow="9336" yWindow="2832" windowWidth="18012" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
@@ -966,11 +966,12 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="1"/>
@@ -1023,7 +1024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2278,11 +2279,11 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>SUBTOTAL(9,D2:D34)</f>
-        <v>1826</v>
+        <v>1705</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(9,E2:E34)</f>
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="P35">
         <f>SUBTOTAL(9,P5:P34)</f>
@@ -2302,11 +2303,11 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39">
         <f>E35-E37</f>
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="F39">
         <f>E35-F37</f>
-        <v>-46</v>
+        <v>-85</v>
       </c>
     </row>
   </sheetData>
@@ -2316,6 +2317,11 @@
         <filter val="2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="12">
+      <filters blank="1">
+        <filter val="QM_B"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/example/анализ данных.xlsx
+++ b/example/анализ данных.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF7300-F7DB-4B04-91E6-B1FA9E70955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF826301-27F3-4278-9192-26D3F2911B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9336" yWindow="2832" windowWidth="18012" windowHeight="12120" activeTab="1" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
+    <workbookView xWindow="13032" yWindow="768" windowWidth="18012" windowHeight="12120" activeTab="3" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
   </bookViews>
   <sheets>
     <sheet name="m" sheetId="1" r:id="rId1"/>
     <sheet name="p" sheetId="2" r:id="rId2"/>
+    <sheet name="m (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="p (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">m!$A$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'m (2)'!$A$1:$C$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">p!$A$1:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'p (2)'!$A$1:$O$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="34">
   <si>
     <t>m_id</t>
   </si>
@@ -138,6 +142,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>pv73-045</t>
   </si>
 </sst>
 </file>
@@ -965,7 +972,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -2326,4 +2333,1788 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA0C664-784E-4EB9-98CE-07A4ABDE982B}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>116</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>134</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>135</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>137</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>140</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>141</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C38" xr:uid="{FBC52064-52F6-45F0-A5D9-03E5A32A1B19}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F1D9C0-365D-4269-92C5-D498AE6FFA38}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>60406</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>INT(D2/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10427</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E34" si="0">INT(D3/3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10428</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>18316</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>15406</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>78426</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>60405</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10417</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <f>16*3</f>
+        <v>48</v>
+      </c>
+      <c r="P11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="6">
+        <f>21*3</f>
+        <v>63</v>
+      </c>
+      <c r="P12" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>60410</v>
+      </c>
+      <c r="D13">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13">
+        <f>25*3</f>
+        <v>75</v>
+      </c>
+      <c r="P13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>18317</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14">
+        <f>16*3</f>
+        <v>48</v>
+      </c>
+      <c r="P14" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>87315</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="P15" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>18310</v>
+      </c>
+      <c r="D17">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="P17" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>87416</v>
+      </c>
+      <c r="D18">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="P18" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>87024</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="P19" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>15306</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="P20" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>60301</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>81433</v>
+      </c>
+      <c r="D22">
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="P22" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>10419</v>
+      </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>10005</v>
+      </c>
+      <c r="D25">
+        <v>137</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>87316</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>87027</v>
+      </c>
+      <c r="D27">
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+      <c r="P27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>87021</v>
+      </c>
+      <c r="D28">
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28" si="1">INT(D28/3)</f>
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28">
+        <v>90</v>
+      </c>
+      <c r="P28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>87026</v>
+      </c>
+      <c r="D29">
+        <v>124</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I34" si="2">INT(H29/3)+2</f>
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>3211</v>
+      </c>
+      <c r="D30">
+        <v>182</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>60411</v>
+      </c>
+      <c r="D31">
+        <v>214</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>11022</v>
+      </c>
+      <c r="D32">
+        <v>253</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>59</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>18308</v>
+      </c>
+      <c r="D33">
+        <v>244</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>18422</v>
+      </c>
+      <c r="D34">
+        <v>285</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>49</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f>SUBTOTAL(9,D2:D35)</f>
+        <v>962</v>
+      </c>
+      <c r="E36">
+        <f>SUBTOTAL(9,E2:E35)</f>
+        <v>317</v>
+      </c>
+      <c r="P36">
+        <f>SUBTOTAL(9,P5:P35)</f>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f>13*27</f>
+        <v>351</v>
+      </c>
+      <c r="F38">
+        <f>24*27</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f>E36-E38</f>
+        <v>-34</v>
+      </c>
+      <c r="F40">
+        <f>E36-F38</f>
+        <v>-331</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O34" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/example/анализ данных.xlsx
+++ b/example/анализ данных.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\aps_qp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF826301-27F3-4278-9192-26D3F2911B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141099C6-C5FF-4F24-B9BC-3874F28BA3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13032" yWindow="768" windowWidth="18012" windowHeight="12120" activeTab="3" xr2:uid="{773D4DF3-950D-4B5E-8C9A-B3658F9BE42F}"/>
   </bookViews>
@@ -2775,7 +2775,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,7 +2833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4075,15 +4075,15 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D36">
         <f>SUBTOTAL(9,D2:D35)</f>
-        <v>962</v>
+        <v>1826</v>
       </c>
       <c r="E36">
         <f>SUBTOTAL(9,E2:E35)</f>
-        <v>317</v>
+        <v>602</v>
       </c>
       <c r="P36">
         <f>SUBTOTAL(9,P5:P35)</f>
-        <v>1119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4099,18 +4099,18 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E40">
         <f>E36-E38</f>
-        <v>-34</v>
+        <v>251</v>
       </c>
       <c r="F40">
         <f>E36-F38</f>
-        <v>-331</v>
+        <v>-46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O34" xr:uid="{67C5CE16-1F1B-483F-A08C-2277275ACBF3}">
     <filterColumn colId="10">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
